--- a/global_data/day_data/002529.xlsx
+++ b/global_data/day_data/002529.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3353"/>
+  <dimension ref="A1:I3355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97645,6 +97647,64 @@
         <v>0.06309894230769231</v>
       </c>
     </row>
+    <row r="3354" spans="1:9">
+      <c r="A3354" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B3354">
+        <v>5.1</v>
+      </c>
+      <c r="C3354">
+        <v>5.1</v>
+      </c>
+      <c r="D3354">
+        <v>5.1</v>
+      </c>
+      <c r="E3354">
+        <v>5.1</v>
+      </c>
+      <c r="F3354">
+        <v>2167200</v>
+      </c>
+      <c r="G3354">
+        <v>11052720</v>
+      </c>
+      <c r="H3354">
+        <v>260000000</v>
+      </c>
+      <c r="I3354">
+        <v>0.008335384615384616</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:9">
+      <c r="A3355" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B3355">
+        <v>4.85</v>
+      </c>
+      <c r="C3355">
+        <v>5.36</v>
+      </c>
+      <c r="D3355">
+        <v>4.85</v>
+      </c>
+      <c r="E3355">
+        <v>5.36</v>
+      </c>
+      <c r="F3355">
+        <v>29663828</v>
+      </c>
+      <c r="G3355">
+        <v>149257236</v>
+      </c>
+      <c r="H3355">
+        <v>260000000</v>
+      </c>
+      <c r="I3355">
+        <v>0.1140916461538461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
